--- a/biology/Botanique/Cercidoideae/Cercidoideae.xlsx
+++ b/biology/Botanique/Cercidoideae/Cercidoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cercidoideae sont une sous-famille de plantes dicotylédones de la famille des Fabaceae, qui comprend une douzaine de genres et environ 335 espèces.
 Parmi les genres les plus connus de cette sous-famille figurent Cercis, qui comprend des espèces (notamment l'arbre de Judée) largement cultivées comme arbres d'ornement aux États-Unis et en Europe,  Bauhinia , très cultivé comme arbre d'ornement en Asie tropicale, et Tylosema esculentum (fève de Marama), culture vivrière traditionnelle en Afrique.
-La sous-famille occupe une position basale au sein des Fabaceae et son caractère monophylétique est étayé par de nombreuses études de phylogénie moléculaire[2],[3],[4],[5],[6],[7].
-Lors de la sixième Conférence internationale sur les légumineuses, le groupe de travail sur la phylogénie des légumineuses (LPWG, Legume Phylogeny Working Group) a proposé d'élever la tribu des Cercidae au niveau de sous-famille des Leguminosae (Fabaceae)[8]. Ce changement, accepté par consensus, a été totalement mis en œuvre en 2017[1]. Sa définition cladistique est la suivante :
-« Le clade de couronne le plus inclusif contient Cercis canadensis L. et Bauhinia divaricata L., mais pas Poeppigia procera C.Presl, Duparquetia orchidacea Baill. ni Bobgunnia fistuloides (Harms) JHKirkbr. &amp; Wiersema.[1] »
-Beaucoup de genres présentent une palynologie unique[9],[10]
+La sous-famille occupe une position basale au sein des Fabaceae et son caractère monophylétique est étayé par de nombreuses études de phylogénie moléculaire.
+Lors de la sixième Conférence internationale sur les légumineuses, le groupe de travail sur la phylogénie des légumineuses (LPWG, Legume Phylogeny Working Group) a proposé d'élever la tribu des Cercidae au niveau de sous-famille des Leguminosae (Fabaceae). Ce changement, accepté par consensus, a été totalement mis en œuvre en 2017. Sa définition cladistique est la suivante :
+« Le clade de couronne le plus inclusif contient Cercis canadensis L. et Bauhinia divaricata L., mais pas Poeppigia procera C.Presl, Duparquetia orchidacea Baill. ni Bobgunnia fistuloides (Harms) JHKirkbr. &amp; Wiersema. »
+Beaucoup de genres présentent une palynologie unique,
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cercidoideae comprennent les genres suivants[1],[11],[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cercidoideae comprennent les genres suivants.
 Cercideae
 Adenolobus (Harv. ex Benth. &amp; Hook.f.) Torre &amp; Hillc.
 Cercis L.
@@ -528,14 +542,14 @@
 Bauhinia L.
 Brenierea Humbert
 Gigasiphon Drake
-Lasiobema (Korth.) Miq.[13].
+Lasiobema (Korth.) Miq..
 Lysiphyllum (Benth.) deWit
 Phanera Lour.
 Piliostigma Hochst.
 Schnella Raddi
 Tylosema (Schweinf.) Torre &amp; Hillc.
 Taxon éteint
-†Bauhcis Calvillo-Canadell &amp; Cevallos-Ferriz[14]
+†Bauhcis Calvillo-Canadell &amp; Cevallos-Ferriz
 </t>
         </is>
       </c>
@@ -564,9 +578,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénétique moléculaire suggère les relations de parenté suivantes[11] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénétique moléculaire suggère les relations de parenté suivantes :
 </t>
         </is>
       </c>
